--- a/data/고객정보.xlsx
+++ b/data/고객정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunwoo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunwoo/PycharmProjects/pythonProject/HanTwoProject/8_BoKum/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3678C4-EAA0-E54C-B1B1-99C299F51AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D8ADBF-8F96-6C4A-AF85-24682D5EEDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26240" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>고객명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>내부수리중입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qkrrkekwk@daum.net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,6 +152,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -153,7 +172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -165,6 +184,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -447,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -530,6 +555,17 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>961012</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:G4"/>
@@ -539,6 +575,7 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{F550167F-35B2-8B4F-A8F1-C5F06BBA7ECA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
